--- a/210915_Load/Assets/Resources/Data/ItemData.xlsx
+++ b/210915_Load/Assets/Resources/Data/ItemData.xlsx
@@ -374,10 +374,10 @@
     <t xml:space="preserve">5/3/5</t>
   </si>
   <si>
-    <t xml:space="preserve">1/2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4/10</t>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <t xml:space="preserve">curMp</t>
@@ -5538,10 +5538,10 @@
   <dimension ref="B1:S24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L31" activeCellId="0" sqref="L31"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.40625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.390625" defaultRowHeight="12.95" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="9.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="11.13"/>
